--- a/заказы/статистика филиалы/2024/01,24/10,01,24 КИ/дв 12,01,24 млрсч.xlsx
+++ b/заказы/статистика филиалы/2024/01,24/10,01,24 КИ/дв 12,01,24 млрсч.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\12,01,24 Мелитополь КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\01,24\10,01,24 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDF5E27-36BD-41D4-92F0-66D519F07E9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566D3A9B-0A51-479B-A0B5-9F500FE1036E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,7 +349,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="164" formatCode="0_ ;[Red]\-0\ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -359,6 +359,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -569,71 +571,70 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -6120,8 +6121,8 @@
   <dimension ref="A1:Y75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X20" sqref="X20"/>
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -6461,7 +6462,7 @@
         <v>77.465599999999995</v>
       </c>
       <c r="P7" s="25">
-        <f t="shared" ref="P7:P25" si="7">10*O7-N7-M7-F7</f>
+        <f t="shared" ref="P7:P19" si="7">10*O7-N7-M7-F7</f>
         <v>438.25659999999999</v>
       </c>
       <c r="Q7" s="25"/>
@@ -9236,10 +9237,6 @@
         <f>VLOOKUP(A44,[1]TDSheet!$A:$O,15,0)</f>
         <v>40.4</v>
       </c>
-      <c r="X44" s="26" t="str">
-        <f>VLOOKUP(A44,[1]TDSheet!$A:$X,24,0)</f>
-        <v>нужно увеличить продажи</v>
-      </c>
       <c r="Y44" s="2">
         <f t="shared" si="10"/>
         <v>35.6</v>
@@ -10665,7 +10662,7 @@
         <v>85.4</v>
       </c>
       <c r="P64" s="25">
-        <f t="shared" ref="P62:P69" si="12">10*O64-N64-M64-F64</f>
+        <f t="shared" ref="P64:P69" si="12">10*O64-N64-M64-F64</f>
         <v>282.40000000000009</v>
       </c>
       <c r="Q64" s="25"/>
@@ -11144,7 +11141,7 @@
       </c>
     </row>
     <row r="71" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="26" t="s">
         <v>75</v>
       </c>
       <c r="B71" s="8" t="s">
@@ -11208,7 +11205,7 @@
         <f>VLOOKUP(A71,[1]TDSheet!$A:$O,15,0)</f>
         <v>3.6</v>
       </c>
-      <c r="X71" s="28" t="str">
+      <c r="X71" s="27" t="str">
         <f>VLOOKUP(A71,[1]TDSheet!$A:$X,24,0)</f>
         <v>то же что и 460/ нужно увеличить продажи</v>
       </c>
@@ -11284,7 +11281,7 @@
       </c>
     </row>
     <row r="73" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="26" t="s">
         <v>77</v>
       </c>
       <c r="B73" s="8" t="s">
@@ -11346,7 +11343,7 @@
         <f>VLOOKUP(A73,[1]TDSheet!$A:$O,15,0)</f>
         <v>0.8</v>
       </c>
-      <c r="X73" s="28" t="str">
+      <c r="X73" s="27" t="str">
         <f>VLOOKUP(A73,[1]TDSheet!$A:$X,24,0)</f>
         <v>то же что и 451 (задвоенное СКЮ)</v>
       </c>
@@ -11422,7 +11419,7 @@
         <f>VLOOKUP(A74,[1]TDSheet!$A:$O,15,0)</f>
         <v>2.226</v>
       </c>
-      <c r="X74" s="29" t="str">
+      <c r="X74" s="28" t="str">
         <f>VLOOKUP(A74,[1]TDSheet!$A:$X,24,0)</f>
         <v>новинка/ согласовал Химич</v>
       </c>
